--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,14 +247,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29372519827650123</v>
+        <v>0.29363238960902455</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29603275067535884</v>
+        <v>0.29594754049200028</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0013457361156783113</v>
+        <v>-0.0013307305766033465</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0001205282333827256</v>
+        <v>0.00012054483007924864</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00064423651045668914</v>
+        <v>-0.00062678602033227216</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00036629445709621052</v>
+        <v>0.00036663031150477321</v>
       </c>
       <c r="H3" s="0">
-        <v>1.8953639289617378e-05</v>
+        <v>1.9688540771036849e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00091350884297982445</v>
+        <v>-0.00091589778387273196</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.8902623972436601e-05</v>
+        <v>3.8902536561413736e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29394575543339091</v>
+        <v>0.29368684673875955</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00038926504523478735</v>
+        <v>-0.0006269271777676321</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.5804282763919875e-05</v>
+        <v>3.5727961376067972e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.7662057042461521e-06</v>
+        <v>-2.0222089040371881e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.532062531117207e-05</v>
+        <v>1.5154502626252589e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00071352878491020861</v>
+        <v>-0.00071292843175689645</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.6484510435772797e-05</v>
+        <v>-3.7599174048515709e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.8761361302022106e-05</v>
+        <v>-1.8762224136992245e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29842699857094918</v>
+        <v>0.29851811133040052</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0027122694589666665</v>
+        <v>0.0030115636189804325</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0026673602492878084</v>
+        <v>-0.0026736078552137719</v>
       </c>
       <c r="E5" s="0">
-        <v>-4.6552966033097135e-05</v>
+        <v>-4.6756449180267699e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00078927110224700202</v>
+        <v>-0.00079883846448941932</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0010188301600333801</v>
+        <v>-0.001019429693488299</v>
       </c>
       <c r="H5" s="0">
-        <v>-8.7608628680245008e-05</v>
+        <v>-8.8114984953503595e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0001783685341573242</v>
+        <v>-0.00017818278245945932</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.8663705173181953e-05</v>
+        <v>2.8662231650378178e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31137979832654966</v>
+        <v>0.3113669841938192</v>
       </c>
       <c r="C6" s="0">
-        <v>0.020695139427395672</v>
+        <v>0.02063464934711241</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-8.9705833520082188e-05</v>
+        <v>-8.9719224483890365e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.6384945024960956e-05</v>
+        <v>-5.6278510855774999e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.7045455543533601e-05</v>
+        <v>-4.7314650824887921e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0017104698268045095</v>
+        <v>-0.0017166175882750993</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00052253483349334884</v>
+        <v>-0.00052253598808127411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31193196184925803</v>
+        <v>0.31191010676173958</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018439307552309172</v>
+        <v>-0.0018584897143061254</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00017862250648914029</v>
+        <v>-0.0001753681530399248</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.001055259861247426</v>
+        <v>-0.0010600190756904018</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00073381500933435942</v>
+        <v>0.00073528242396216092</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00010084694894869061</v>
+        <v>0.00010074046382977681</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00025820371656004593</v>
+        <v>-0.00025820336978654712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25719637385972155</v>
+        <v>0.25741296863984947</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.026562494835656644</v>
+        <v>-0.026419576680789519</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>4.6279529893420248e-05</v>
+        <v>4.6300114456528193e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00031484230238965652</v>
+        <v>-0.00031483226799193037</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.3774422456375557e-05</v>
+        <v>1.3802083176043897e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.001093963951212674</v>
+        <v>0.0010971199223638176</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>9.0781406651196939e-05</v>
+        <v>9.0784448771141779e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24816956138883572</v>
+        <v>0.24835938669213412</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0003179074220077454</v>
+        <v>-0.00031454764502587281</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0019944404018885065</v>
+        <v>-0.0019998705727689477</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0054774970703224271</v>
+        <v>-0.0054811785924295513</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00057228444949269355</v>
+        <v>0.00056854898280080687</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016995760508092245</v>
+        <v>-0.00016957186539568744</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00025781051131230432</v>
+        <v>-0.00025769476065260621</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.6635853327960923e-06</v>
+        <v>2.6638956686086956e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34829244451653296</v>
+        <v>0.34939547484899092</v>
       </c>
       <c r="C10" s="0">
-        <v>0.053724835624637562</v>
+        <v>0.053815689949473104</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.8779907632786191e-05</v>
+        <v>1.876988432728557e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00034492695768605569</v>
+        <v>-0.00034503861121392554</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.8776140560943901e-05</v>
+        <v>1.8753747028998036e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00035110422039142568</v>
+        <v>-0.00034728517387081615</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022741502156963752</v>
+        <v>-0.0022779368809805705</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00065014577440986043</v>
+        <v>0.00065015245179070313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33529003590129003</v>
+        <v>0.3363572835797175</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0027760267534912863</v>
+        <v>-0.0027549227578067387</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00057568440358718388</v>
+        <v>0.00057767874928239327</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0001109146280602135</v>
+        <v>-0.00012432175334561795</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001293867444972242</v>
+        <v>0.001296931339851882</v>
       </c>
       <c r="H11" s="0">
-        <v>6.8930150575072111e-05</v>
+        <v>6.7957448477404641e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0042988032183104629</v>
+        <v>-0.0043098557922746821</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0019858900695328141</v>
+        <v>0.0019858900884319186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.22574165002118218</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.037767532094999876</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>6.6514655321126201e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>6.071290437521346e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-1.0514778882964838e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00084680649615198091</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0033882445508190417</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,14 +388,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29363238960902455</v>
+        <v>0.29356738029404078</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29594754049200028</v>
+        <v>0.29591447938615062</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0013307305766033465</v>
+        <v>-0.0013446302888199448</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00012054483007924864</v>
+        <v>0.00012051427112793891</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00062678602033227216</v>
+        <v>-0.00063882935027581383</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00036663031150477321</v>
+        <v>0.00036776143940357779</v>
       </c>
       <c r="H3" s="0">
-        <v>1.9688540771036849e-05</v>
+        <v>1.9153393681677208e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00091589778387273196</v>
+        <v>-0.0009193099962911288</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.8902536561413736e-05</v>
+        <v>3.8902104169236118e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29368684673875955</v>
+        <v>0.29390644283991046</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0006269271777676321</v>
+        <v>-0.00051652714065019366</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.5727961376067972e-05</v>
+        <v>3.5750281641193184e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.0222089040371881e-06</v>
+        <v>-1.9427195494059199e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.5154502626252589e-05</v>
+        <v>1.5179961142047895e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00071292843175689645</v>
+        <v>-0.00071377596873462847</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.7599174048515709e-05</v>
+        <v>-3.9327267582495256e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.8762224136992245e-05</v>
+        <v>-1.8773027828822286e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29851811133040052</v>
+        <v>0.29834772049492636</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0030115636189804325</v>
+        <v>0.002750774561484654</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0026736078552137719</v>
+        <v>-0.0026589651802525868</v>
       </c>
       <c r="E5" s="0">
-        <v>-4.6756449180267699e-05</v>
+        <v>-4.7012463055666941e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00079883846448941932</v>
+        <v>-0.00078852215947225089</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.001019429693488299</v>
+        <v>-0.0010241469151698499</v>
       </c>
       <c r="H5" s="0">
-        <v>-8.8114984953503595e-05</v>
+        <v>-8.7632396496968224e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00017818278245945932</v>
+        <v>-0.00017806970680349517</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.8662231650378178e-05</v>
+        <v>2.8665298198393696e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3113669841938192</v>
+        <v>0.31165804737086999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02063464934711241</v>
+        <v>0.020911035743630325</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-8.9719224483890365e-05</v>
+        <v>-8.9726301658637537e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.6278510855774999e-05</v>
+        <v>-5.6051116653157887e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.7314650824887921e-05</v>
+        <v>-4.7136796299533335e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0017166175882750993</v>
+        <v>-0.0017162698223249253</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00052253598808127411</v>
+        <v>-0.00052254139106094888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31191010676173958</v>
+        <v>0.31221475037990104</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018584897143061254</v>
+        <v>-0.0018557307182948104</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0001753681530399248</v>
+        <v>-0.00016944234491121602</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0010600190756904018</v>
+        <v>-0.0010488539624600854</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00073528242396216092</v>
+        <v>0.0007378406823556283</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00010074046382977681</v>
+        <v>0.00010054642760646034</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00025820336978654712</v>
+        <v>-0.00025820371701318345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.25741296863984947</v>
+        <v>0.25607514838776668</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.026419576680789519</v>
+        <v>-0.026886727039504246</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>4.6300114456528193e-05</v>
+        <v>4.6377930194433429e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00031483226799193037</v>
+        <v>-0.00031504290853527443</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.3802083176043897e-05</v>
+        <v>1.3917230815206757e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0010971199223638176</v>
+        <v>0.0011017469960430167</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>9.0784448771141779e-05</v>
+        <v>9.0791781244659031e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24835938669213412</v>
+        <v>0.2471192511881396</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.00031454764502587281</v>
+        <v>-0.00033183854723185579</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0019998705727689477</v>
+        <v>-0.0020061075421365549</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0054811785924295513</v>
+        <v>-0.0054899162779427028</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00056854898280080687</v>
+        <v>0.00057274761481157532</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016957186539568744</v>
+        <v>-0.00016988458053759592</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00025769476065260621</v>
+        <v>-0.00025725111064319822</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.6638956686086956e-06</v>
+        <v>2.6614812597136606e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34939547484899092</v>
+        <v>0.34912228950210533</v>
       </c>
       <c r="C10" s="0">
-        <v>0.053815689949473104</v>
+        <v>0.054154621094006955</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>1.876988432728557e-05</v>
+        <v>1.8650380058026987e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00034503861121392554</v>
+        <v>-0.00034727334106389598</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1.8753747028998036e-05</v>
+        <v>1.8645263082136935e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00034728517387081615</v>
+        <v>-0.00035137637034197229</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022779368809805705</v>
+        <v>-0.002237614473963779</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00065015245179070313</v>
+        <v>0.00065014370208324457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3363572835797175</v>
+        <v>0.33603430037436244</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0027549227578067387</v>
+        <v>-0.0028909638593871312</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00057767874928239327</v>
+        <v>0.0005694376284855454</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00012432175334561795</v>
+        <v>-0.00019758310418475445</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001296931339851882</v>
+        <v>0.0013055587507297263</v>
       </c>
       <c r="H11" s="0">
-        <v>6.7957448477404641e-05</v>
+        <v>6.4788814726781378e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0043098557922746821</v>
+        <v>-0.0043266043085209661</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0019858900884319186</v>
+        <v>0.0019858907241764312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.22574165002118218</v>
+        <v>0.23818750355997026</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.037767532094999876</v>
+        <v>-0.049850093411318623</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>6.6514655321126201e-05</v>
+        <v>7.5725572085318514e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>6.071290437521346e-06</v>
+        <v>0.0015259596882583311</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-1.0514778882964838e-05</v>
+        <v>0.00041516594914718001</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00084680649615198091</v>
+        <v>0.0059633763485863901</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0033882445508190417</v>
+        <v>-0.0034584152646149335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.11989635632945461</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.065053211890197957</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.004652485996958956</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0022206880534911002</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0012485178388229586</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00051823950199112476</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.00017755182544188118</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.0026056101927652842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.15217892641214911</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.15582117389069813</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4.2537030591082072e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00011173427084882972</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>4.7329241381389994e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.022486616557134107</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>7.8489889060867624e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29356738029404078</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29591447938615062</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29390644283991046</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.29834772049492636</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.31165804737086999</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31221475037990104</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.25607514838776668</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.2471192511881396</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.34912228950210533</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.33603430037436244</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.23818750355997026</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.11989635632945461</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.15217892641214911</v>
+        <v>0.2296171195842526</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.15582117389069813</v>
+        <v>-0.13195000925455114</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>4.2537030591082072e-05</v>
+        <v>2.8285770949727714e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00011173427084882972</v>
+        <v>-0.00028184360965809765</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>4.7329241381389994e-05</v>
+        <v>-0.0025847238176880507</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.022486616557134107</v>
+        <v>-0.0057645598535684085</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>7.8489889060867624e-06</v>
+        <v>-0.0082110538959964535</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.082980719775684664</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.11387603988371474</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0040792488137367227</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.003664564751533169</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.010687487968502076</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.001695886313282019</v>
       </c>
     </row>
   </sheetData>
